--- a/regions/5/infrastruqtura/infrastruqtura.xlsx
+++ b/regions/5/infrastruqtura/infrastruqtura.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ბინაში შეყვანილი წყალსადენის სისტემა</t>
   </si>
@@ -37,8 +37,11 @@
     <t>ბუნებრივი აირით უზრუნველყოფილი შინამეურნეობების რაოდენობა</t>
   </si>
   <si>
+    <t>* 2011-2018 წლები მოიცავს აჭარის, შიდა ქართლის, მცხეთა-მთიანეთის, გურიისა და სამცხე-ჯავახეთის რეგიონებს.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">ბუნებრივი აირით უზრუნველყოფილი შინამეურნეობების წილი სამცხე-ჯავახეთის* რეგიონში
+      <t xml:space="preserve">ელექტროენერგიითა და ბუნებრივი აირით უზრუნველყოფილი შინამეურნეობების წილი აჭარის ავტონომიურ რესპუბლიკაში
 </t>
     </r>
     <r>
@@ -53,7 +56,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ელექტროენერგიით უზრუნველყოფილი შინამეურნეობების წილი სამცხე-ჯავახეთის რეგიონში
+      <t xml:space="preserve">შინამეურნეობების განაწილება სასმელი წყლის ძირითადი წყაროების მიხედვით აჭარის ავტონომიურ რესპუბლიკაში*
 </t>
     </r>
     <r>
@@ -66,32 +69,11 @@
       <t>(%)</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">შინამეურნეობების განაწილება სასმელი წყლის ძირითადი წყაროების მიხედვით სამცხე-ჯავახეთის** რეგიონში
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <t>* 2011-2018 წლები მოიცავს სამცხე-ჯავახეთის, გურიისა და მცხეთა-მთიანეთის რეგიონებს.</t>
-  </si>
-  <si>
-    <t>** 2011-2018 წლები მოიცავს სამცხე-ჯავახეთის, გურიის, მცხეთა-მთიანეთის, შიდა ქართლისა და აჭარის რეგიონებს.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -125,8 +107,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -154,6 +137,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -172,12 +160,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -242,47 +224,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,529 +576,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="72.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5">
         <v>2011</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>2012</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>2013</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>2014</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>2015</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>2016</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2017</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>2018</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>2019</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>2020</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11">
-        <v>99.999999999999488</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="10">
+        <v>99.81934688361892</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100.00000000000023</v>
+      </c>
+      <c r="D3" s="10">
+        <v>99.99999999999973</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100.00000000000007</v>
+      </c>
+      <c r="F3" s="10">
+        <v>100.00000000000007</v>
+      </c>
+      <c r="G3" s="10">
+        <v>100.00000000000034</v>
+      </c>
+      <c r="H3" s="10">
         <v>100</v>
       </c>
-      <c r="D3" s="11">
-        <v>100.00000000000028</v>
-      </c>
-      <c r="E3" s="11">
-        <v>100.00000000000014</v>
-      </c>
-      <c r="F3" s="11">
-        <v>99.999999999999858</v>
-      </c>
-      <c r="G3" s="11">
-        <v>99.999999999999872</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="I3" s="10">
         <v>100</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="10">
         <v>100</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="10">
         <v>100</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="10">
         <v>100</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="N3" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>14.119722366236811</v>
+      </c>
+      <c r="C4" s="11">
+        <v>23.198418849772963</v>
+      </c>
+      <c r="D4" s="11">
+        <v>32.029469845350349</v>
+      </c>
+      <c r="E4" s="11">
+        <v>39.759831914738413</v>
+      </c>
+      <c r="F4" s="11">
+        <v>46.59972079276956</v>
+      </c>
+      <c r="G4" s="11">
+        <v>51.514803479301243</v>
+      </c>
+      <c r="H4" s="11">
+        <v>51.725395605174803</v>
+      </c>
+      <c r="I4" s="11">
+        <v>54.301866714660612</v>
+      </c>
+      <c r="J4" s="11">
+        <v>67.565993626155475</v>
+      </c>
+      <c r="K4" s="11">
+        <v>71.731448687767923</v>
+      </c>
+      <c r="L4" s="11">
+        <v>69.251253268946371</v>
+      </c>
+      <c r="M4" s="11">
+        <v>77.771673863390063</v>
+      </c>
+      <c r="N4" s="11">
+        <v>77.824995296072331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2013</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2019</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
+        <v>48.585042910653065</v>
+      </c>
+      <c r="C9" s="12">
+        <v>50.272255303730191</v>
+      </c>
+      <c r="D9" s="12">
+        <v>49.768875508564477</v>
+      </c>
+      <c r="E9" s="12">
+        <v>48.979591459642151</v>
+      </c>
+      <c r="F9" s="12">
+        <v>50.556621379415674</v>
+      </c>
+      <c r="G9" s="12">
+        <v>50.020723475028184</v>
+      </c>
+      <c r="H9" s="12">
+        <v>48.853913539840569</v>
+      </c>
+      <c r="I9" s="12">
+        <v>53.163268347960454</v>
+      </c>
+      <c r="J9" s="12">
+        <v>74.07774570595474</v>
+      </c>
+      <c r="K9" s="12">
+        <v>75.967300755257128</v>
+      </c>
+      <c r="L9" s="12">
+        <v>75.70934194003577</v>
+      </c>
+      <c r="M9" s="12">
+        <v>78.824678230853408</v>
+      </c>
+      <c r="N9" s="12">
+        <v>79.093430511211253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12">
+        <v>30.90452064500278</v>
+      </c>
+      <c r="C10" s="12">
+        <v>27.625036094756158</v>
+      </c>
+      <c r="D10" s="12">
+        <v>22.655797535919604</v>
+      </c>
+      <c r="E10" s="12">
+        <v>21.02318121614368</v>
+      </c>
+      <c r="F10" s="12">
+        <v>17.343047732395103</v>
+      </c>
+      <c r="G10" s="12">
+        <v>15.832232283160666</v>
+      </c>
+      <c r="H10" s="12">
+        <v>16.233480895010004</v>
+      </c>
+      <c r="I10" s="12">
+        <v>14.07353800656729</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.7292595731933122</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.49627953282736914</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.43136368890346893</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.23108102628717758</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>13.136441919059711</v>
+      </c>
+      <c r="C11" s="12">
+        <v>14.048341523913702</v>
+      </c>
+      <c r="D11" s="12">
+        <v>14.258181731723946</v>
+      </c>
+      <c r="E11" s="12">
+        <v>17.673511195671171</v>
+      </c>
+      <c r="F11" s="12">
+        <v>20.864070130180288</v>
+      </c>
+      <c r="G11" s="12">
+        <v>21.623783868043418</v>
+      </c>
+      <c r="H11" s="12">
+        <v>17.70107378196381</v>
+      </c>
+      <c r="I11" s="12">
+        <v>16.520048687784762</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.89405062598074747</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1.3994224501115251</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.8700045945172401</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.34015433858970784</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.14505701197944987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>6.9054322184602857</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7.6992864949848663</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12.458791326821137</v>
+      </c>
+      <c r="E12" s="12">
+        <v>12.323716128542994</v>
+      </c>
+      <c r="F12" s="12">
+        <v>11.23626075800893</v>
+      </c>
+      <c r="G12" s="12">
+        <v>12.479382667608657</v>
+      </c>
+      <c r="H12" s="12">
+        <v>17.089938682694871</v>
+      </c>
+      <c r="I12" s="12">
+        <v>15.997857945146402</v>
+      </c>
+      <c r="J12" s="12">
+        <v>22.298944094871104</v>
+      </c>
+      <c r="K12" s="12">
+        <v>22.136997261803977</v>
+      </c>
+      <c r="L12" s="12">
+        <v>22.989289776543522</v>
+      </c>
+      <c r="M12" s="12">
+        <v>20.604086404269705</v>
+      </c>
+      <c r="N12" s="12">
+        <v>20.761512476809305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.46856230682413919</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.35508058261506859</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.85835389697083486</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4.3877706159074242E-2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.1215931004907453</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.24528701254108798</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7">
-        <v>2011</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2014</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2015</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2016</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2019</v>
-      </c>
-      <c r="K7" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>23.645856307015265</v>
-      </c>
-      <c r="C8" s="12">
-        <v>22.175096643680153</v>
-      </c>
-      <c r="D8" s="12">
-        <v>39.050934081237976</v>
-      </c>
-      <c r="E8" s="12">
-        <v>49.197446943286806</v>
-      </c>
-      <c r="F8" s="12">
-        <v>53.937917268463295</v>
-      </c>
-      <c r="G8" s="13">
-        <v>63.56691188323785</v>
-      </c>
-      <c r="H8" s="13">
-        <v>63.60452656329084</v>
-      </c>
-      <c r="I8" s="13">
-        <v>64.231319795132222</v>
-      </c>
-      <c r="J8" s="13">
-        <v>78.044696748599463</v>
-      </c>
-      <c r="K8" s="13">
-        <v>77.964746536761155</v>
-      </c>
-      <c r="L8" s="13">
-        <v>79.221891242113941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
-        <v>2011</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2014</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2015</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2016</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2019</v>
-      </c>
-      <c r="K13" s="7">
-        <v>2020</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14">
-        <v>48.585042910653065</v>
-      </c>
-      <c r="C14" s="14">
-        <v>50.272255303730191</v>
-      </c>
-      <c r="D14" s="14">
-        <v>49.768875508564477</v>
-      </c>
-      <c r="E14" s="14">
-        <v>48.979591459642151</v>
-      </c>
-      <c r="F14" s="14">
-        <v>50.556621379415674</v>
-      </c>
-      <c r="G14" s="14">
-        <v>50.020723475028184</v>
-      </c>
-      <c r="H14" s="14">
-        <v>48.853913539840569</v>
-      </c>
-      <c r="I14" s="14">
-        <v>53.163268347960454</v>
-      </c>
-      <c r="J14" s="14">
-        <v>75.708674237724566</v>
-      </c>
-      <c r="K14" s="14">
-        <v>77.856855148419996</v>
-      </c>
-      <c r="L14" s="14">
-        <v>81.167278565897121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
-        <v>30.90452064500278</v>
-      </c>
-      <c r="C15" s="14">
-        <v>27.625036094756158</v>
-      </c>
-      <c r="D15" s="14">
-        <v>22.655797535919604</v>
-      </c>
-      <c r="E15" s="14">
-        <v>21.02318121614368</v>
-      </c>
-      <c r="F15" s="14">
-        <v>17.343047732395103</v>
-      </c>
-      <c r="G15" s="14">
-        <v>15.832232283160666</v>
-      </c>
-      <c r="H15" s="14">
-        <v>16.233480895010004</v>
-      </c>
-      <c r="I15" s="14">
-        <v>14.07353800656729</v>
-      </c>
-      <c r="J15" s="14">
-        <v>18.221288984252688</v>
-      </c>
-      <c r="K15" s="14">
-        <v>16.936040334796683</v>
-      </c>
-      <c r="L15" s="14">
-        <v>15.801673336345033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14">
-        <v>13.136441919059711</v>
-      </c>
-      <c r="C16" s="14">
-        <v>14.048341523913702</v>
-      </c>
-      <c r="D16" s="14">
-        <v>14.258181731723946</v>
-      </c>
-      <c r="E16" s="14">
-        <v>17.673511195671171</v>
-      </c>
-      <c r="F16" s="14">
-        <v>20.864070130180288</v>
-      </c>
-      <c r="G16" s="14">
-        <v>21.623783868043418</v>
-      </c>
-      <c r="H16" s="14">
-        <v>17.70107378196381</v>
-      </c>
-      <c r="I16" s="14">
-        <v>16.520048687784762</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1.8514031299260956</v>
-      </c>
-      <c r="K16" s="14">
-        <v>1.6173688623066937</v>
-      </c>
-      <c r="L16" s="14">
-        <v>0.58228720739495599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <v>6.9054322184602857</v>
-      </c>
-      <c r="C17" s="14">
-        <v>7.6992864949848663</v>
-      </c>
-      <c r="D17" s="14">
-        <v>12.458791326821137</v>
-      </c>
-      <c r="E17" s="14">
-        <v>12.323716128542994</v>
-      </c>
-      <c r="F17" s="14">
-        <v>11.23626075800893</v>
-      </c>
-      <c r="G17" s="14">
-        <v>12.479382667608657</v>
-      </c>
-      <c r="H17" s="14">
-        <v>17.089938682694871</v>
-      </c>
-      <c r="I17" s="14">
-        <v>15.997857945146402</v>
-      </c>
-      <c r="J17" s="14">
-        <v>4.218633648096545</v>
-      </c>
-      <c r="K17" s="14">
-        <v>2.5002730517849292</v>
-      </c>
-      <c r="L17" s="14">
-        <v>1.412436465128651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0.46856230682413919</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.35508058261506859</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.85835389697083486</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>4.3877706159074242E-2</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0.1215931004907453</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0.24528701254108798</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>1.089462602691696</v>
-      </c>
-      <c r="L18" s="15">
-        <v>1.0363244252342423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A19:L19"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
